--- a/public/asset/layout_slip_gaji.xlsx
+++ b/public/asset/layout_slip_gaji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\OneDrive\Documents\Binus\SMSTR 6 &amp; 7\xampp\htdocs\projects\miniProject1\public\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C3E99B-E28B-43EA-8D51-48C30169184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4AC74-7603-442F-9ECF-75EA717F5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0107F64-22E8-4BDF-93E8-4E34B52BAD31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>SLIP GAJI</t>
   </si>
@@ -50,9 +50,6 @@
     <t>*semua nilai dalam Rupiah</t>
   </si>
   <si>
-    <t>Nama Karyawan</t>
-  </si>
-  <si>
     <t>Div./Dept.</t>
   </si>
   <si>
@@ -74,21 +71,9 @@
     <t>Gaji Pokok</t>
   </si>
   <si>
-    <t>{gaji_pokok}</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
-    <t>{Nama Lengkap}</t>
-  </si>
-  <si>
-    <t>{Total Penerimaan}</t>
-  </si>
-  <si>
-    <t>{Total Potongan}</t>
-  </si>
-  <si>
     <t>{total_transfer}</t>
   </si>
   <si>
@@ -195,6 +180,102 @@
   </si>
   <si>
     <t>Potongan. BPJS:</t>
+  </si>
+  <si>
+    <t>{{Nama Lengkap}}</t>
+  </si>
+  <si>
+    <t>{{gaji_pokok}}</t>
+  </si>
+  <si>
+    <t>{{tj_jabatan}}</t>
+  </si>
+  <si>
+    <t>{{tj_keahlian}}</t>
+  </si>
+  <si>
+    <t>{{tj_masa_kerja}}</t>
+  </si>
+  <si>
+    <t>{{tj_keluarga}}</t>
+  </si>
+  <si>
+    <t>{{Workdays}}</t>
+  </si>
+  <si>
+    <t>{{WFO}}</t>
+  </si>
+  <si>
+    <t>{{WFA}}</t>
+  </si>
+  <si>
+    <t>{{Ijin}}</t>
+  </si>
+  <si>
+    <t>{{Alpha}}</t>
+  </si>
+  <si>
+    <t>{{tj_transport}}</t>
+  </si>
+  <si>
+    <t>{{Periode}}</t>
+  </si>
+  <si>
+    <t>{{tj_makan}}</t>
+  </si>
+  <si>
+    <t>{{tj_pph21}}</t>
+  </si>
+  <si>
+    <t>{{tj_hari_raya}}</t>
+  </si>
+  <si>
+    <t>{{tj_bpjs_kesehatan}}</t>
+  </si>
+  <si>
+    <t>{{bonus}}</t>
+  </si>
+  <si>
+    <t>{{lain_lain}}</t>
+  </si>
+  <si>
+    <t>{{total_pj}}</t>
+  </si>
+  <si>
+    <t>{{pj_dibayar}}</t>
+  </si>
+  <si>
+    <t>{{sisa_pj}}</t>
+  </si>
+  <si>
+    <t>{{pot_absensi}}</t>
+  </si>
+  <si>
+    <t>{{pot_keterlambatan}}</t>
+  </si>
+  <si>
+    <t>{{Total Penerimaan}}</t>
+  </si>
+  <si>
+    <t>{{Total Potongan}}</t>
+  </si>
+  <si>
+    <t>{{Divisi}}</t>
+  </si>
+  <si>
+    <t>{{Jabatan}}</t>
+  </si>
+  <si>
+    <t>{{Bank}}</t>
+  </si>
+  <si>
+    <t>{{AccountNo}}</t>
+  </si>
+  <si>
+    <t>{{Nama Lengkap}</t>
+  </si>
+  <si>
+    <t>Nama testing</t>
   </si>
 </sst>
 </file>
@@ -205,7 +286,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +348,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA6ACCD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,6 +433,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,18 +830,20 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="1.5546875" customWidth="1"/>
-    <col min="3" max="4" width="13.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.88671875" customWidth="1"/>
     <col min="7" max="7" width="1.5546875" customWidth="1"/>
-    <col min="8" max="9" width="13.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -773,62 +868,74 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -852,200 +959,277 @@
     <row r="11" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>28</v>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1053,27 +1237,27 @@
       <c r="B42" s="2"/>
       <c r="C42" s="4"/>
       <c r="D42" s="7" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="4"/>
       <c r="I42" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H44" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/asset/layout_slip_gaji.xlsx
+++ b/public/asset/layout_slip_gaji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\OneDrive\Documents\Binus\SMSTR 6 &amp; 7\xampp\htdocs\projects\miniProject1\public\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4AC74-7603-442F-9ECF-75EA717F5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43B7221-033E-4CE3-8E96-6E4D7D60C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0107F64-22E8-4BDF-93E8-4E34B52BAD31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>SLIP GAJI</t>
   </si>
@@ -74,9 +74,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>{total_transfer}</t>
-  </si>
-  <si>
     <t>Total Transfer:</t>
   </si>
   <si>
@@ -170,112 +167,131 @@
     <t>Sisa Pinjaman</t>
   </si>
   <si>
+    <t>PPh 21</t>
+  </si>
+  <si>
+    <t>Potongan. BPJS:</t>
+  </si>
+  <si>
+    <t>{{Nama Lengkap}}</t>
+  </si>
+  <si>
+    <t>{{gaji_pokok}}</t>
+  </si>
+  <si>
+    <t>{{tj_jabatan}}</t>
+  </si>
+  <si>
+    <t>{{tj_keahlian}}</t>
+  </si>
+  <si>
+    <t>{{tj_masa_kerja}}</t>
+  </si>
+  <si>
+    <t>{{tj_keluarga}}</t>
+  </si>
+  <si>
+    <t>{{Workdays}}</t>
+  </si>
+  <si>
+    <t>{{WFO}}</t>
+  </si>
+  <si>
+    <t>{{WFA}}</t>
+  </si>
+  <si>
+    <t>{{Ijin}}</t>
+  </si>
+  <si>
+    <t>{{Alpha}}</t>
+  </si>
+  <si>
+    <t>{{tj_transport}}</t>
+  </si>
+  <si>
+    <t>{{tj_makan}}</t>
+  </si>
+  <si>
+    <t>{{tj_pph21}}</t>
+  </si>
+  <si>
+    <t>{{tj_hari_raya}}</t>
+  </si>
+  <si>
+    <t>{{tj_bpjs_kesehatan}}</t>
+  </si>
+  <si>
+    <t>{{bonus}}</t>
+  </si>
+  <si>
+    <t>{{lain_lain}}</t>
+  </si>
+  <si>
+    <t>{{total_pj}}</t>
+  </si>
+  <si>
+    <t>{{pj_dibayar}}</t>
+  </si>
+  <si>
+    <t>{{sisa_pj}}</t>
+  </si>
+  <si>
+    <t>{{pot_absensi}}</t>
+  </si>
+  <si>
+    <t>{{pot_keterlambatan}}</t>
+  </si>
+  <si>
+    <t>{{Total Penerimaan}}</t>
+  </si>
+  <si>
+    <t>{{Total Potongan}}</t>
+  </si>
+  <si>
+    <t>{{Divisi}}</t>
+  </si>
+  <si>
+    <t>{{Jabatan}}</t>
+  </si>
+  <si>
+    <t>{{Bank}}</t>
+  </si>
+  <si>
+    <t>{{AccountNo}}</t>
+  </si>
+  <si>
+    <t>{{total_transfer}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{{Periode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{{ImagePlaceholder}}</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Pot. Keterlambatan</t>
+  </si>
+  <si>
     <t>Pot. Kehadiran</t>
   </si>
   <si>
-    <t>Pot. Keterlambatan</t>
-  </si>
-  <si>
-    <t>PPh 21</t>
-  </si>
-  <si>
-    <t>Potongan. BPJS:</t>
-  </si>
-  <si>
-    <t>{{Nama Lengkap}}</t>
-  </si>
-  <si>
-    <t>{{gaji_pokok}}</t>
-  </si>
-  <si>
-    <t>{{tj_jabatan}}</t>
-  </si>
-  <si>
-    <t>{{tj_keahlian}}</t>
-  </si>
-  <si>
-    <t>{{tj_masa_kerja}}</t>
-  </si>
-  <si>
-    <t>{{tj_keluarga}}</t>
-  </si>
-  <si>
-    <t>{{Workdays}}</t>
-  </si>
-  <si>
-    <t>{{WFO}}</t>
-  </si>
-  <si>
-    <t>{{WFA}}</t>
-  </si>
-  <si>
-    <t>{{Ijin}}</t>
-  </si>
-  <si>
-    <t>{{Alpha}}</t>
-  </si>
-  <si>
-    <t>{{tj_transport}}</t>
-  </si>
-  <si>
-    <t>{{Periode}}</t>
-  </si>
-  <si>
-    <t>{{tj_makan}}</t>
-  </si>
-  <si>
-    <t>{{tj_pph21}}</t>
-  </si>
-  <si>
-    <t>{{tj_hari_raya}}</t>
-  </si>
-  <si>
-    <t>{{tj_bpjs_kesehatan}}</t>
-  </si>
-  <si>
-    <t>{{bonus}}</t>
-  </si>
-  <si>
-    <t>{{lain_lain}}</t>
-  </si>
-  <si>
-    <t>{{total_pj}}</t>
-  </si>
-  <si>
-    <t>{{pj_dibayar}}</t>
-  </si>
-  <si>
-    <t>{{sisa_pj}}</t>
-  </si>
-  <si>
-    <t>{{pot_absensi}}</t>
-  </si>
-  <si>
-    <t>{{pot_keterlambatan}}</t>
-  </si>
-  <si>
-    <t>{{Total Penerimaan}}</t>
-  </si>
-  <si>
-    <t>{{Total Potongan}}</t>
-  </si>
-  <si>
-    <t>{{Divisi}}</t>
-  </si>
-  <si>
-    <t>{{Jabatan}}</t>
-  </si>
-  <si>
-    <t>{{Bank}}</t>
-  </si>
-  <si>
-    <t>{{AccountNo}}</t>
-  </si>
-  <si>
-    <t>{{Nama Lengkap}</t>
-  </si>
-  <si>
-    <t>Nama testing</t>
+    <t>TOTAL PENERIMAAN</t>
+  </si>
+  <si>
+    <t>TOTAL POTONGAN</t>
   </si>
 </sst>
 </file>
@@ -286,7 +302,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,10 +365,21 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFA6ACCD"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -382,12 +409,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -397,48 +572,127 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,55 +710,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1325880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45085</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpeg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C16951-272E-0611-4D14-AA45F54E681C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1325880" cy="410845"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,443 +1034,640 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="1.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="1.5546875" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F1" s="17" t="s">
+    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="C5" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>76</v>
+      <c r="H5" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C7" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+      <c r="H7" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H8" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F13" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G22" s="36"/>
+      <c r="H22" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="1:9" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="I42" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="6.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
+      <c r="I44" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:I3"/>
+    <mergeCell ref="A1:C3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>